--- a/news_data/2016_03.xlsx
+++ b/news_data/2016_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,21 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>'스마트관광.전기차', 제주도 전략산업으로 집중 육성</t>
+  </si>
+  <si>
+    <t>‘세월호 2차 청문회’ 국정원, 세월호 타고 제주도 관광 ‘특별한 관계’</t>
+  </si>
+  <si>
+    <t>한국관광공사, 제주도 상대 39억 원 골프장 세금소송 패소</t>
+  </si>
+  <si>
+    <t>제주도, 관광공사 중문골프장 재산세 소송 승소</t>
+  </si>
+  <si>
+    <t>'추적60분' 사라진 제주도 베트남 관광객 56명…제2의 오원춘 토막살인 위험 ...</t>
+  </si>
+  <si>
     <t>제주도, 골프관광객 유치마케팅 본격 시동</t>
   </si>
   <si>
@@ -49,28 +64,40 @@
     <t>제주도, 강정 민군복합항 크루즈관광 유치 팸투어 진행</t>
   </si>
   <si>
-    <t>제주도, 골프관광객 유치마케팅 본격 시동 검색 본문 바로가기 회사정보 바로가기 2022.10.04 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 골프관광객 유치마케팅 본격 시동 (제주=뉴스1) 이석형 기자					| 2016-03-01 12:53 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 박인비 프로가 9일 제주 오라CC에서 열린 제주 삼다수 마스터스 마지막 라운드에서 1번홀 출발 전 수건으로 땀을 닦고 있다. (KLPGA 제공) 2015.8.9/뉴스1 © News1 제주도는 골프관광객 유치를 위해 민·관 공동 유치단을 구성해 해외 마케팅에 본격적으로 나선다고 1일 밝혔다.도는 우선 골프장과 항공사가 협력체계를 구축한 후 일본 직항노선과 비수기 등을 활용해 가격 경쟁력을 갖춘 골프상품을 개발한다.특히 중국과 일본에서 열리는 국제박람회에 참가해 골프관광객 유치를 위해 적극적으로 홍보할 계획이다.또 가격경쟁력과 지리적 접근성이 좋은 중국시장을 대상으로 팸투어와 기업과 골프 동호회 등이 참가하는 아마추어 골프대회 유치 등을 추진한다.국내 시장은 공항 인접 도시 골프연습장과 스크린골프장을 중심으로 홍보마케팅 활동을 강화하는 한편 도내 개최 19개 골프대회에 대한 갤러리 및 대회 체험을 위한 홍보활동도 나설 계획이다. jejunews77@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 황보라♥차현우, 혼인신고…임신 때문에 먼저 최성국, 24세 연하 연인과 결혼 "올가을 예식" 13세연하 우즈벡 아내에 폭언+손가락욕 충격 '임신' 허니제이, 언더붑 시스루 파격 패션 "살인 싫다" 러시아 래퍼, 동원령에 극단 선택 송혜교, 흰 티에도 '만찢녀' 비주얼…독보적 미모 오늘의 핫 포토 쌀쌀해진 아침 윤 대통령 "北 무모한 도발, 국제사회 결연한 대응 직면할 것" 민주당 ‘감사원의 문재인 전 대통령 조사’ 항의 제주는 여름? 10월 낮 기온 31.2도 기록 ‘새출발기금’, 4일부터 공식 출범 우비 입은 수문장들 단기 4355년 개천절, '홍익정신 되새기며…' 탭메뉴 스포츠 연예 스타일 스포츠 2경기만 남은 이대호, 이대호 없는 미래를 준비해야 할 롯데 임성재, 시즌 첫 미션은 '타이틀 방어'…슈라이너스 오픈 7일 개막 '나폴리의 벽' 김민재, 월드컵서 만날 '가나 신성' 쿠두스를 막아라 은퇴투어 주인공의 비애…이승엽도 이대호도 가을야구 없이 떠나다 연예 소이현 "출산 후 거울 속 내 모습 싫었다"…인교진 반응은? [RE:TV] 레인보우 고우리, 5세 연상 사업가와 오늘 결혼 [N디데이] "미스터리 섹시" 자신했던 위하준…'작은아씨들'의 탁월한 캐스팅 [N초점] '파격' 김예원 "간절하게 합류한 '수리남'…출연 반대도 있었지만" [N인터뷰]① 스타일 구준엽♥서희원, 샤워 가운만 입고 소파에서...눈에서 꿀떨어지는 투샷 [N화... 송혜교, 그림 같은 미모...우아함 넘치는 '가을여신' [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
-  </si>
-  <si>
-    <t>대법원, 제주도가 한국관광공사 중문골프클럽 66억 세금부과 정당 회원가입·로그인 |  회사소개 검색 입력 폼 검색 산업 산업일반·정책·재계 IT·전자·방송·게임 건설·부동산 자동차·항공 유통·생활경제 의료·제약 경제 경제일반 금융 증권 가상화폐·핀테크 정치 청와대·국회 정부부처·지자체 공기업·공공기관 국제 법조·사회 일반사회 법원·헌법재판소 법무부·검찰 변호사·법무사 사건사고 교육 인사·부고 오피니언 기고 기자수첩 영상·포토 전체메뉴 전체기사산업산업일반·정책·재계IT·전자·방송·게임건설·부동산자동차·항공유통·생활경제의료·제약경제경제일반금융증권가상화폐·핀테크정치청와대·국회정부부처·지자체공기업·공공기관국제법조·사회일반사회법원·헌법재판소법무부·검찰변호사·법무사사건사고교육인사·부고오피니언기고기자수첩영상·포토 대법원, 제주도가 한국관광공사 중문골프클럽 66억 세금부과 정당 한국관광공사가 제주도 상대로 낸 부당이득금 반환 청구소송 패소 기사입력:2016-03-15 20:39:44 글씨 축소 글씨 확대 프린트 페이스북 트위터 구글플러스 [로이슈=신종철 기자] 한국관광공사가 운영 중인 중문골프클럽에 대해 제주도가 부과한 66억원의 과세처분에 불복해 소송을 냈으나, 1심부터 대법원까지 모두 패했다. 한국관광공사는 1989년 5월 제주 서귀포시 색달동에 중문골프클럽(중문골프장)을 열면서 ‘체육시설의 설치ㆍ이용에 관한 법률’에 따라 골프장을 회원제로 등록했으나, 실제로는 회원을 모집하지 않고 대중골프장으로 운영해 왔다. 사진은중문골프장홈페이지 제주도는 골프장 토지를 분리과세대상으로 보고, 재산세와 지방교육세액을 산정해 2008~2012년까지 총 66억 2985만원의 세금을 부과했다. 그러자 한국관광공사는 “과세처분 당시 이 골프장은 실제로는 회원제골프장이 아니라 대중골프장으로 운영되고 있었으므로, 골프장 부지의 토지는 4%의 높은 세율이 적용되는 분리과세대상이 아니라 0.2~0.4%의 낮은 세율이 적용되는 별도합산과세대상에 해당한다”고 주장했다. 특히 “골프장을 등록과 달리 대중골프장으로 운영한 것은 제주도의 정책적 요청에 의한 것이므로, 제주도가 이런 실제 현황을 알고 있었다”며 “그럼에도 제주도가 회원제골프장으로 등록돼 있음을 이유로 토지를 분리과세대상으로 보고 재산세 및 지방교육세액을 산정한 처부는 당연무효”라고 주장했다. 그러면서 “따라서 제주도가 골프장 토지를 별도합산과세대상으로 봐 재산세 및 지방교육세를 산정했을 경우의 정당한 세액과 부리과세대상으로 봐 이루어진 이 사건 과세처분에 따른 세액의 차액 상당인 부당이득액 39억 3821만원과 이에 대한 이자를 지급하라”며 소송을 냈다. 1심인 서울중앙지법 제26민사부(재판장 이은신 부장판사)는 2014년 4월 한국관광공사가 제주도를 상대로 낸 부당이득금 반환 청구소송에서 원고 패소 판결했다. 2심인 서울고법 제15민사부(재판장 김우진 부장판사)도 1월 “원고가 제출한 증거들만으로는 이 사건 과세처분에 존재하는 하자가 명백하다고 인정하기에 부족하고 이를 인정할 증거가 없다”며 한국관광공사의 항소를 기각했다. 시건은 대법원으로 올라갔으나, 대법원 판단도 같았다. 대법원 제1부(주심 김소영 대법관)는 한국관광공사가 제주도를 상대로 낸 부당이득금 반환 청구소송 상고심에서 원고 패소 판결한 원심을 확정했다고 14일 밝혔다. 재판부는 “회원제골프장으로 등록했으나 실제로는 회원을 모집하지 않고 대중골프장으로 운영한 원고의 골프장 부지는 구 지방세법 등 관계 법령에 의하면 낮은 세율이 적용되는 별도합산과세대상임에도 피고가 분리과세대상으로 보고 더 높은 세율을 적용해 과세처분을 한 것에는 법규의 중요한 부분을 위반한 중대한 하자가 있다”고 말했다. 그러나 재판부는 “구 지방세법 규정의 문언상 이 골프장 부지가 분리과세대상 토지에 해당하지 않는다고 단정하기 어렵고, 유사한 사안에 대해 하급심 법원의 판결이나 행정자치부의 유권해석도 이 사건 과세처분과 마찬가지의 결론을 내리는 등 법령 해석에 다툼의 여지가 있는 점 등의 사정에 비추어 보면 원고가 제출한 증거들만으로 이 과세처분의 하자가 명백하다고 인정할 수 없어 과세처분이 무효라고 할 수 없다고 원심은 판단했다”고 밝혔다. 그러면서 “관련 법리와 기록에 비추어 살펴보면, 원심의 판단은 수긍할 수 있고, 거기에 상고이유 주장과 같이 명백성의 판단 기준에 관한 법리를 오해하거나 판단을 누락하는 등의 위법이 없다”고 판시했다. &lt;저작권자 © 로이슈, 무단 전재 및 재배포 금지&gt; 로이슈가 제공하는 콘텐츠에 대해 독자는 친근하게 접근할 권리와 정정ㆍ반론ㆍ추후 보도를 청구 할 권리가 있습니다. 메일:law@lawissue.co.kr / 전화번호:02-6925-0217 주요뉴스 국회, ‘윤석열 정부’ 첫 국정감사 돌입... 1일차 법사위·외통위 중심 여... 정치 대통령실, 정부 고위공직후보 사전질문 첫 공개 정치 정부, 조직개편안 발표 예고... 여가부 폐지·동포청 신설 전망 정치 코로나19 신규 확진 1만 2150명...월요일 13주만 최저치 정치 대법원, 주민친화시설 포함 하수도원인자부담금 산정 김포시 처분 위법 법조·사회 엔씨소프트, 2022년 공개채용 실시...'포스트 장학금' 등 복지 앞세워 인재... 산업 핫포커스 〉 김정문알로에 자회사 케이제이엠바이오, 치료제 없는 난청 관련 건기식 원료... 현대약품, 전립선비대에 의한 배뇨장애 해결 ‘유린타민캡슐’ 선보여 CJ제일제당, ‘고메치킨’ 신제품 2종 선보여 KFC, 프리미엄 닭다리통살로 재탄생한 ‘블랙라벨더블다운맥스’ 선보여 세븐일레븐, 2021 추석선물세트 판매 시작 CU, 추석 선물로 기존 편의점에서 판매하지 않았던 상품들 대거 선보여 글씨 축소 글씨 확대 프린트 페이스북 트위터 구글플러스 투데이 이슈 〉 [생활경제 이슈] 바비의 꿈 응원 캠페인, ‘나의 워너비 패션모델’ 1위는 ... 산업 단지내 교통사고 없애고 쾌적성까지 갖춘 아파트 ‘관심’ 집중 법조·사회 [사회이슈] 알바몬 "장년 아르바이트 모집 공고 2년 연속 급증했다" 外 법조·사회 당정, '해외입국자 코로나검사 면제' 논의 정치 정부, 집중호우 피해 코스타리카에 5만달러 인도적 지원 정치 [에누리 주간IT-9월 4주] 가을학기 및 단풍축제에 디지털가전 판매 증가 산업 LAW ISSUE 윤 대통령, 박진 해임건의안 사실상 거부 방침... 외교부도 장관 일정 선공... 베스트클릭 〉 1  부산 사하구 한 주택화재 사망사고 2  임오경 의원 "지난 30년간 메달연금 1.7배 인상...현실화 해야" 3  식품진흥원, 윤리경영 위한 농식품부 산하 협의체 참여 4  용혜인, ‘서민금융’ 새마을금고 임직원 금융비리 6년간 손해 640억 원 달해 5  삼성바이오로직스, 각본 없이 묻고 답하는 ‘리얼 톡’ 실시 주식시황 〉 항목 현재가 전일대비 코스피 2,202.65 ▲47.16 코스닥 689.87 ▲17.22 코스피200 288.34 ▲6.98 가상화폐 시세 〉 빗썸 업비트 코인원 암호화폐 현재가 기준대비 비트코인 28,176,000 ▼154,000 비트코인캐시 167,000 ▼600 비트코인골드 29,070 ▼180 이더리움 1,905,000 ▼7,000 이더리움클래식 39,390 ▼230 리플 657 ▼6 이오스 1,697 ▼16 퀀텀 4,108 ▼24 암호화폐 현재가 기준대비 비트코인 28,210,000 ▼110,000 암호화폐 현재가 기준대비 비트코인 28,181,000 ▼157,000 비트코인캐시 167,300 ▼400 비트코인골드 29,440 0 이더리움 1,904,000 ▼8,000 이더리움클래식 39,390 ▼200 리플 657 ▼6 퀀텀 4,104 0 이오타 400 ▼3 오피니언 〉 [기고]가을철 불청객 말벌쏘임, 예방책 및 응급처치법 [기고]환절기 심뇌혈관 질환 예방과 올바른 생활수칙 [기자수첩] 국감 앞둔 수자원공사, 많아도 너무 많은 논란 [기고] "생명을 살리는 응급처치, 하임리히법" 신문사소개 기사제보 광고문의 개인정보취급방침 청소년보호정책 이메일무단수집거부 저작권규약 제호:로이슈 | 정기간행물 등록번호:서울 아00830 | 창간연월일:2005년 11월 1일 대표이사:김영삼 | 발행인/편집인:김영삼 | 청소년보호책임자:편도욱 주소:서울 영등포구 국회대로 70길 22 금강빌딩 705호 전화:02-6925-0217 Copyright ⓒ 2013 로이슈. All rights reserved. e-mail : info@lawissue.co.kr</t>
-  </si>
-  <si>
-    <t>"제주관광 질적 향상을 위해" 유관기관 뭉쳤다! &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:14 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 "제주관광 질적 향상을 위해" 유관기관 뭉쳤다! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 "제주관광 질적 향상을 위해" 유관기관 뭉쳤다! 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.03.06 16:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도가 제주관광의 질적성장을 위해 관광공사, 관광협회 등 유관기관과 합동워크숍을 5일부터 7일까지 2박3일간 제주웰컴센터에서 개최하고 있다. 제주도는 2016년 제주관광의 새로운 목표인 질적성장을 위해 2016 해외제주관광홍보사무소 합동 워크숍을 5일부터 7일까지 2박3일간 제주웰컴센터 3층에서 개최하고 있다.이번 합동 워크숍에서는 2016년 제주관광의 새로운 비전과 목표인 질적성장의 성공적인 달성을 위해 2015년의 성과와 과제를 살펴보고 2016년 해외 현지 관광동향과 마케팅 계획을 공유하고, 유관기관 및 도내 업계의 의견수렴을 통한 협업과제와 마케팅 방안 등을 발굴할 계획이다.이를 바탕으로 제주도는 외국인관광객 유치를 위한 위협요인과 빠르게 변화해나가는 관광객 트렌드에 적절히 대응함과 동시에 올해 추진될 각각의 사업계획 반영을 통해 실질적인 성과를 창출할 수 있도록 최선을 다해 나갈 예정이다.워크숍 일정은 5일 관광공사, 관광협회, 컨벤션뷰로의 마케팅분야 2016년 사업추진 계획 공유를 시작으로 권역별 해외홍보사무소 현지 동향 및 2016년 주요 계획, 권역별 분임토의를 진행했다.특히 도내 여행사, 호텔 등 관광업계와의 토론을 통해 실제 현장의  살아있는 의견을 교환하는 등 소통을 확대했다.6일은 올해 개최되는 대형 이벤트, 축제를 연계한 관광객 유치 마케팅 방안, 스마트 관광 추진 등에 관한 추진계획을 공유함은 물론 성공적인 행사개최 등을 위한 권역별 현지 사무소의 의견수렴과 현지 마케팅방안 등 협조사항을 논의했다. ▲ 제주도가 제주관광의 질적성장을 위해 관광공사, 관광협회 등 유관기관과 합동워크숍을 5일부터 7일까지 2박3일간 제주웰컴센터에서 개최하고 있다. 또한 제주도내 신규 관광자원 시찰을 통해 각 시장별 특성에 맞는 제주상품 개발 및 홍보도 집중 토론됐다.마지막인 7일은 올해 제주관광의 화두인 질적성장을 위한 도정정책 공유와 함께 전날까지 이루어진 다양한 의견과 방안을 총정리하는 합동 워크숍을 끝으로 마무리 할 예정이다.제주도 관계자는 "이번 2016 해외제주홍보사무소장 합동 워크숍을 통해 공유된 사업추진방향의 성실한 이행을 통해 제주관광의 질적 성장은 물론, 이를 계기로 도내 관광분야 기관, 단체, 업계가 하나로 뭉쳐 국내외 정치‧경제적 위기에도 관광산업이 흔들리지 않고 앞으로 나아갈 수 있는 토대를 마련하겠다"고 밝혔다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 직무역량 강화 관광사업체 세무.회계과정 진행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 직무역량 강화 관광사업체 세무.회계과정 진행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 직무역량 강화 관광사업체 세무.회계과정 진행 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.17 17:01 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)와 제주특별자치도인재개발원(원장 김영주)은 관광사업체 세무.회계과정 3기 교육을 18일 제주웰컴센터에서 진행한다.이번 교육은 관광사업체의 효율적 경영관리와 직원 직무능력 향상을 돕기 위해 마련됐으며, 현업 중심의 종합소득세 및 부가가치세 실무교육이 이뤄진다.한편 관광협회는 기업 경쟁력 강화와 인적자원 투자의 일환으로 지역특산물 소비지출을 위한 '지역특산물 SNS 마케팅과정'1기 교육을 오는 29일 진행할 예정이다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 해외제주관광 홍보사무소 합동 워크숍 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 해외제주관광 홍보사무소 합동 워크숍 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 해외제주관광 홍보사무소 합동 워크숍 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.06 09:44 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 2016년 제주관광의 새로운 목표인 질적성장의 목표 달성을 위해 5일부터 7일까지 제주웰컴센터에서 '2016 해외제주관광홍보사무소 합동 워크숍'을 개최하고 있다.워크숍에서는 2016년 제주관광의 새로운 비전과 목표인 질적성장의 성공적인 달성을 위해 지난 2015년의 성과와 과제를 살펴보고 2016년 해외 현지 관광동향과 마케팅 계획을 공유하는 한편, 유관기관 및 도내 업계의 의견수렴을 통한 협업과제와 마케팅 방안 등에 대해 논의된다.제주자치도 관계자는 "이번 워크숍을 통해 공유된 사업추진방향의 성실한 이행을 통해 제주관광의 질적 성장은 물론, 이를 계기로 도내 관광분야 기관, 단체, 업계가 하나로 뭉쳐 국내외 정치.경제적 위기에도 관광산업이 흔들리지 않고 앞으로 나아갈 수 있는 토대를 마련하겠다"고 말했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 방문관광객 89%가 '개별관광객'...패키지 '8.7%' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 방문관광객 89%가 '개별관광객'...패키지 '8.7%' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 방문관광객 89%가 '개별관광객'...패키지 '8.7%' 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.08 13:36 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 평균체류일수 내국인 5.08일, 외국인 4.45일 제주도를 방문하는 관광객 중 개별관광객이 90%에 육박하는 것으로 나타났다.제주관광공사(사장 최갑열)는 8일 지난해 제주를 방문한 내.외국인 및 크루즈 관광객 6,918명을 대상으로 실시한 국가승인통계 '2015 제주특별자치도 방문관광객 실태조사' 결과를 발표했다. 이번 조사는 제주국제공항, 제주여객터미널, 제주외항 크루즈 전용부두 등 주요 관문지역에서 개별면접조사 방식으로 관광객 성향, 제주관광실태, 제주여행평가 및 만족도 등을 관광객 유형에 따라 이뤄졌다. 조사 결과 내국인 방문관광객의 평균 체류일수는 5.08일이며, 1인 지출 경비는 57만2285원으로 나타났다. 여행형태는 개별여행이 89.0%로 가장 높았다.반면 패키지여행은 8.7%로 크게 떨어졌고, 에어-텔여행(air-tel tour) 2.3%로 나타났다. 제주 여행에 대한 전반적 만족도는 3.99점(5점 만점 기준)으로 나타났다. 외국인 방문관광객의 평균 체류일수는 4.45일이며 1인 지출 경비는 미화기준 1520.3달러로 나타났다.외국인들의 여행형태는 개별여행 46.7%, 패키지여행 50.2%, 에어-텔여행(air-tel tour) 3.1%로 나타났다. 제주 여행에 대한 전반적 만족도는 4.10점(5점 만점 기준)으로 나타났다. 방문관광객 실태조사는 2014년에 국가승인통계로 지정되어 제주관광에 대한 기초현황 자료로서 관광정책 및 제주관광 발전의 기초자료로 많이 활용되고 있다.제주관광공사 관계자는 "기존 관광객을 대상으로 설문조사를 진행하는 것에 덧붙여, 관광객을 대상으로 한 인터뷰, 실제적으로 관광행동을 관찰하는 가장 조사방법 등을 활용한 정성적인 조사방법을 이용하여 더욱 더 심층 있는 조사를 전개할 계획"이라고 밝혔다. &lt;헤드라인제주&gt;&lt;윤철수 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 강정 민군복합항 크루즈관광 유치 팸투어 진행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 강정 민군복합항 크루즈관광 유치 팸투어 진행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 강정 민군복합항 크루즈관광 유치 팸투어 진행 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.02 13:46 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 강정항 조감도 ⓒ헤드라인제주 제주특별자치도는 내년 7월 서귀포시 강정 민군복합형 관광미항(제주해군기지) 준공을 앞두고, 중국 화동지역 크루즈간광객 유치를 위해 3일부터 6일까지 모객 여행사 관계자 초청 팸투어를 진행한다고 2일 밝혔다.팸투어에는 상해화하여행사, 강소성의 남경시중국여행사, 절강성의 녕파해외여행사 등 9개 여행사의 대표 등 12명이 참가한다.제주자치도는 이번 팸투어를 통해 민군복합항이 내년 7월 개항하게 됨에 따라 중국 크루즈관광객 제주 유치확대를 요청하고 기항지관광 프로그램 운영 시 유료관광지 이용 확대와 지역상권 방문 등이 이뤄질 수 있도록 요청할 방침이라고 전했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 골프관광객 유치마케팅 본격 시동 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 골프관광객 유치마케팅 본격 시동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 골프관광객 유치마케팅 본격 시동 기자명 고병수 기자 입력 2016.03.01 16:06 수정 2016.03.01 16:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 민·관 공동마케팅 구성...블루오션 시장 집중 공략 (제주=국제뉴스) 고병수기자 = 제주특별자치도는 고부가가치 스포츠관광객의 81%이상을 차지하며 제주스포츠산업을 견인하는 골프관광객 유치마케팅에 본격 시동을 걸었다고 1일 밝혔다.도는 올해 골프관광객 유치마케팅 추진방향을 질 높고 차별화된 골프상품을 개발하고 중국, 일본시장 등 블루오션 시장을 타켓으로 민관공동 유치단을 구성해 공격적인 유치마케팅 활동을 전개한다는 방침이라는 것.이에 질 높고 차별화된 골프상품을 골프장과 항공사, MICE, 관광업계 등과 연계해 다양하게 선보일 예정이다.올해 블루오션 골프시장은 신규 골프관광 수요 창출이 가능한 중국과 한일관계 개선으로 다시 떠오르는 일본, 국내 공항 인접도시 등을 꼽고 있다.중국 시장은 가격경쟁력과 지리적 접근성이 좋은데다 골프동호회 중심으로 골프인구의 지속적인 증가가 예상되고 있다. 일본시장은 우리나라 주변국 중 골프인구가 가장 많고 한일 관계 개선 및 제주-일본 직항노선 회복 등의 호재로 작용하여 새로운 골프관광 수요 창출이 기대하고 있다.국내시장인 경우 골프장 급증세에 따라 지자체 간 골프관광객 유치경쟁이 치열한 가운데 제주와 항공 접근성이 쉬운 김포, 김해, 청주 등 공항 인접도시를 타깃으로 삼았다.민·관 공동 골프관광객 유치단은 블루오션 시장을 타킷으로 공격적인 마케팅 활동을 전개할 계획이다.관계자는 "체계적인 골프관광객 유치방안을 마련하기 위해 골프관광객 유치 T/F팀은 새롭게 구성해 분기 1회 이상 운영할 예정"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>'스마트관광.전기차', 제주도 전략산업으로 집중 육성 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 '스마트관광.전기차', 제주도 전략산업으로 집중 육성 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 '스마트관광.전기차', 제주도 전략산업으로 집중 육성 오미란 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.30 11:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 30일 제주도청에서 원희룡 제주도지사가 제주전략산업육성추진단 회의를 주재하고 있다. ⓒ헤드라인제주 제주특별자치도는 스마트 관광, 전기차 인프라 구축 등 제주 전략산업 육성계획을 수립.확정해 대통령 직속 지역발전위원회에 제출했다고 30일 밝혔다.이번 계획에는 산업별 규제특례 33건과 5241억원 규모의 민간 및 공공투자의 재정지원 계획이 포함됐다.세부내용을 살펴보면 먼저 산업별 규제특례로는 크루즈선 내국인 관광객 하선 허용, 개인정보 이용범위 확대 등 스마트 관광 규제특례 13건, 제주전기차 특구 지정, 전기차 주행거리.연비시험방법 개선 등 전기차인프라 구축 20건의 규제가 포함됐다.스마트관광 산업 부문에서는 제주 어디서나 인터넷 접속(WiFi)과 위치기반서비스(Beacon)가 가능한 ICT 기반구축 사업과 VR(가상현실)을 기반으로 한 디지털플랫폼 구축사업 등 사업비 1995억원 규모의 총 8개 사업계획이 포함됐다.전기차 인프라 구축 부문에는 EV안전 및 관제센터, EV-Town 조성사업과 EV안전검사센터 조성사업 등 사업비 3246억원 규모의 총 10개 사업이 담겼다.제주도 측은 제주전략산업육성계획이 정부의 창조경제 육성을 위한 핵심산업으로 추진되고 있음을 감안, 규제특별법 제정을 비롯한 재정확보에 적극 대응 해 나간다는 계획이다.&lt;헤드라인제주&gt;&lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>한국관광공사, 제주도 상대 39억 원 골프장 세금소송 패소 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 한국관광공사, 제주도 상대 39억 원 골프장 세금소송 패소 입력 2016.03.14 (13:58) 수정 2016.03.14 (14:12) 사회 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 한국관광공사가 제주도를 상대로 과다하게 납부된 세금을 돌려달라며 낸 소송에서 최종 패소했다. 대법원 1부는 제주도 중문골프장을 운영하는 한국관광공사가 제주특별자치도를 상대로 과세처분으로 인한 부당이득금을 돌려달라며 낸 소송에서 원고 패소로 판결한 원심을 확정했다. 재판부는 "회원제골프장으로 등록된 중문골프장을 구 지방세법 규정의 문언상 분리과세대상 토지에 해당하지 않는다고 단정하기 어렵고, 유사한 사안에 대해 하급심 법원의 판결이나 행정자치부의 유권해석도 이 사건의 과세처분과 같은 결론을 내리는 등 법령 해석 다툼의 여지가 있다는 점을 고려해 과세처분에 명백한 하자가 있다고 볼 수 없다"고 밝혔다. 지난 2013년, 한국관광공사는 제주도가 2008년부터 2012년까지 중문골프장이 회원골프장으로 등록돼있다는 이유로 분리과세대상으로 보고 부과한 세금 39억 원은 부당이득금이라며 반환 청구 소송을 냈다. 1심 법원은 "회원제 골프장으로 등록했지만 회원 모집을 하지 않고 골프장을 운영하는 경우, 언제든지 회원을 모집하여 운영할 수 있는 중과세 대상 골프장에 해당한다는 행정자치부의 유권해석 등을 근거로 과세 처분에 명백한 하자가 있다고 보기 어렵다"며 원고 패소 판결을 내렸고, 2심 법원은 한국관광공사의 항소를 기각했다. 한국관광공사, 제주도 상대 39억 원 골프장 세금소송 패소 입력 2016-03-14 13:58:42 수정2016-03-14 14:12:14 사회 한국관광공사가 제주도를 상대로 과다하게 납부된 세금을 돌려달라며 낸 소송에서 최종 패소했다. 대법원 1부는 제주도 중문골프장을 운영하는 한국관광공사가 제주특별자치도를 상대로 과세처분으로 인한 부당이득금을 돌려달라며 낸 소송에서 원고 패소로 판결한 원심을 확정했다. 재판부는 "회원제골프장으로 등록된 중문골프장을 구 지방세법 규정의 문언상 분리과세대상 토지에 해당하지 않는다고 단정하기 어렵고, 유사한 사안에 대해 하급심 법원의 판결이나 행정자치부의 유권해석도 이 사건의 과세처분과 같은 결론을 내리는 등 법령 해석 다툼의 여지가 있다는 점을 고려해 과세처분에 명백한 하자가 있다고 볼 수 없다"고 밝혔다. 지난 2013년, 한국관광공사는 제주도가 2008년부터 2012년까지 중문골프장이 회원골프장으로 등록돼있다는 이유로 분리과세대상으로 보고 부과한 세금 39억 원은 부당이득금이라며 반환 청구 소송을 냈다. 1심 법원은 "회원제 골프장으로 등록했지만 회원 모집을 하지 않고 골프장을 운영하는 경우, 언제든지 회원을 모집하여 운영할 수 있는 중과세 대상 골프장에 해당한다는 행정자치부의 유권해석 등을 근거로 과세 처분에 명백한 하자가 있다고 보기 어렵다"며 원고 패소 판결을 내렸고, 2심 법원은 한국관광공사의 항소를 기각했다. ■ 제보하기 ▷ 카카오톡 : 'KBS제보' 검색 ▷ 전화 : 02-781-1234 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 뉴스홈페이지 : https://goo.gl/4bWbkG 기자 정보 홍진아 기자 gina@kbs.co.kr 홍진아 기자의 기사 모음 댓글 좋아요 공유하기 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>'추적60분' 사라진 제주도 베트남 관광객 56명…제2의 오원춘 토막살인 위험 없나 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 문화·연예 대중문화·연예일반 속보 행안부, 정부청사 방호인력 34명 신규 채용[국감] 이복현 금감원장 "공매도, 국민 눈높이 맞춰 제도 보완할 것"여성만 출입했던 고궁 수유실, 영유아 동반 시 누구나 이용 가능[국감] 이복현 금감원장 "보험사기 해결 위해 보험사와 협력시스템 가동 중"'2022 국제 공구 및 스마트 용접 자동화전' 이달 18일 개막인권위 "시험 도중 화장실 이용 제한은 인권 침해"9월 고용보험 가입자 전년비 38만명 증가…증가폭은 둔화대법 "'분식회계' 대한전선·안진회계, 주주들에 손해배상하라"수학 계산 어려운 '난산증' 학생 지원한다K-뷰티 해외 진출 위한 '2022 Beauty Trade Show' 2천만 달러 계약 성과[인사] 외교부BAT로스만스 "연초 담배서 글로 전환 시 폐질환 위험 낮춘다" LF '아떼 바네사브루노', FW 브랜드 통합 기획전최대 2만원 할인…토니모리, '쇼핑지원금' 프로모션[국감] "코레일·SR 감사원 자료제출, 민간인 사찰"…나희승 사장 "법이 우선"[시진핑의 뉴차이나] ⑥그날이 오면(到那時)... 르포 시진핑 전시관의 중국몽 &lt;下&gt;코오롱FnC, 첫 오프라인 행사 '더카트골프클럽' 개최[국감] 최재해 "최근 우려 잘 알아…정치적 중립 지키며 공정 감사 노력"尹대통령, 청년 껴안기 나서…"청년, 국정운영의 동반자"[부고] 박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 더보기 '추적60분' 사라진 제주도 베트남 관광객 56명…제2의 오원춘 토막살인 위험 없나 기사입력 : 2016년03월16일 10:22 최종수정 : 2016년03월16일 10:22 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 2012년 엽기적은 수원 토막살인사건을 저지른 오원춘. '추적60분'은 밀입국 외국인들이 벌이는 강력범죄의 위험성을 진단한다. &lt;사진=뉴시스&gt; [뉴스핌=정상호 기자] KBS 2TV ‘추적60분’이 제주도 여행 중 연기처럼 사라진 외국인 관광객들을 추적한다. 16일 오후 방송하는 ‘추적60분’은 지난 1월12일 제주도 여행에 나선 베트남 단체 관광객 155명 중 59명이 사라진 기이한 사건을 파헤친다. 이날 ‘추적60분’은 여행 첫 날 밤 숙소를 떠나 잠적해버린 베트남 관광객 59명이 어디서 뭘 하는지 분석한다. ‘추적60분’ 제작진은 당시 베트남 관광객들을 인솔한 한국인 가이드를 만나 자세한 이야기를 들어봤다. 이 가이드는 관광객으로 보이지 않는 행색 탓에 어딘가 의심스러운 점이 있었다고 털어놨다. 정부에 따르면 제주도는 외국인 관광객 유치 활성화를 위해 30일간 비자 없이 여행할 수 있는 지역으로 지정됐다. 덕분에 제주도를 찾는 외국인 관광객 수는 해마다 증가세를 보여 왔다. 다만 늘어나는 제주도 관광객만큼 무단 잠적하는 외국인 수도 급증하는 추세다. ‘추적60분’ 제작지은 이번 베트남 관광객 집단 잠적 사건은 제주도가 무사증을 도입한 2002년 이래, 최대 규모라고 설명했다. 경찰은 당시 사라진 베트남 관광객 중에서 26명의 행방이 아직도 수수께끼라고 설명했다. ‘추적60분’ 제작진은 관광객을 위장한 베트남인들이 왜 제주도로 들어왔으며, 어디로 갔는지 중요한 단서를 공개할 예정이다. 특히 ‘추적60분’은 국내에서 외국인 밀입국을 돕는 일종의 브로커가 존재하는지 파헤친다. 실제로 이번 베트남 관광객 집단 잠적의 배후에는 적극적으로 일을 도와준 국내 여성이 있는 것으로 전해졌다. 아울러 ‘추적60분’은 잠적한 외국인들이 벌이는 범죄의 문제점도 짚어본다. 전문가들은 2년 전 수원 팔달산 토막살인 등 신원을 알 수 없는 밀입국 외국인이 저지르는 강력범죄는 초동대처가 어렵다고 경고했다. ‘추적60분’은 16일 오후 11시10분 방송한다. [뉴스핌 Newspim] 정상호 기자 (uma82@newspim.com) GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 ‘2022 정조대왕 능행차 공동재현’ 행사 안다 TV 영상 [영상] ①쿠팡, 미국 공모주 물림의 법칙? 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>제주도, 골프관광객 유치마케팅 본격 시동 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 골프관광객 유치마케팅 본격 시동 (제주=뉴스1) 이석형 기자					| 2016-03-01 12:53 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 박인비 프로가 9일 제주 오라CC에서 열린 제주 삼다수 마스터스 마지막 라운드에서 1번홀 출발 전 수건으로 땀을 닦고 있다. (KLPGA 제공) 2015.8.9/뉴스1 © News1 제주도는 골프관광객 유치를 위해 민·관 공동 유치단을 구성해 해외 마케팅에 본격적으로 나선다고 1일 밝혔다.도는 우선 골프장과 항공사가 협력체계를 구축한 후 일본 직항노선과 비수기 등을 활용해 가격 경쟁력을 갖춘 골프상품을 개발한다.특히 중국과 일본에서 열리는 국제박람회에 참가해 골프관광객 유치를 위해 적극적으로 홍보할 계획이다.또 가격경쟁력과 지리적 접근성이 좋은 중국시장을 대상으로 팸투어와 기업과 골프 동호회 등이 참가하는 아마추어 골프대회 유치 등을 추진한다.국내 시장은 공항 인접 도시 골프연습장과 스크린골프장을 중심으로 홍보마케팅 활동을 강화하는 한편 도내 개최 19개 골프대회에 대한 갤러리 및 대회 체험을 위한 홍보활동도 나설 계획이다. jejunews77@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>대법원, 제주도가 한국관광공사 중문골프클럽 66억 세금부과 정당 회원가입·로그인 |  회사소개 검색 입력 폼 검색 산업 산업일반·정책·재계 IT·전자·방송·게임 건설·부동산 자동차·항공 유통·생활경제 의료·제약 경제 경제일반 금융 증권 가상화폐·핀테크 정치 청와대·국회 정부부처·지자체 공기업·공공기관 국제 법조·사회 일반사회 법원·헌법재판소 법무부·검찰 변호사·법무사 사건사고 교육 인사·부고 오피니언 기고 기자수첩 영상·포토 전체메뉴 전체기사산업산업일반·정책·재계IT·전자·방송·게임건설·부동산자동차·항공유통·생활경제의료·제약경제경제일반금융증권가상화폐·핀테크정치청와대·국회정부부처·지자체공기업·공공기관국제법조·사회일반사회법원·헌법재판소법무부·검찰변호사·법무사사건사고교육인사·부고오피니언기고기자수첩영상·포토 대법원, 제주도가 한국관광공사 중문골프클럽 66억 세금부과 정당 한국관광공사가 제주도 상대로 낸 부당이득금 반환 청구소송 패소 기사입력:2016-03-15 20:39:44 글씨 축소 글씨 확대 프린트 페이스북 트위터 구글플러스 [로이슈=신종철 기자] 한국관광공사가 운영 중인 중문골프클럽에 대해 제주도가 부과한 66억원의 과세처분에 불복해 소송을 냈으나, 1심부터 대법원까지 모두 패했다. 한국관광공사는 1989년 5월 제주 서귀포시 색달동에 중문골프클럽(중문골프장)을 열면서 ‘체육시설의 설치ㆍ이용에 관한 법률’에 따라 골프장을 회원제로 등록했으나, 실제로는 회원을 모집하지 않고 대중골프장으로 운영해 왔다. 사진은중문골프장홈페이지 제주도는 골프장 토지를 분리과세대상으로 보고, 재산세와 지방교육세액을 산정해 2008~2012년까지 총 66억 2985만원의 세금을 부과했다. 그러자 한국관광공사는 “과세처분 당시 이 골프장은 실제로는 회원제골프장이 아니라 대중골프장으로 운영되고 있었으므로, 골프장 부지의 토지는 4%의 높은 세율이 적용되는 분리과세대상이 아니라 0.2~0.4%의 낮은 세율이 적용되는 별도합산과세대상에 해당한다”고 주장했다. 특히 “골프장을 등록과 달리 대중골프장으로 운영한 것은 제주도의 정책적 요청에 의한 것이므로, 제주도가 이런 실제 현황을 알고 있었다”며 “그럼에도 제주도가 회원제골프장으로 등록돼 있음을 이유로 토지를 분리과세대상으로 보고 재산세 및 지방교육세액을 산정한 처부는 당연무효”라고 주장했다. 그러면서 “따라서 제주도가 골프장 토지를 별도합산과세대상으로 봐 재산세 및 지방교육세를 산정했을 경우의 정당한 세액과 부리과세대상으로 봐 이루어진 이 사건 과세처분에 따른 세액의 차액 상당인 부당이득액 39억 3821만원과 이에 대한 이자를 지급하라”며 소송을 냈다. 1심인 서울중앙지법 제26민사부(재판장 이은신 부장판사)는 2014년 4월 한국관광공사가 제주도를 상대로 낸 부당이득금 반환 청구소송에서 원고 패소 판결했다. 2심인 서울고법 제15민사부(재판장 김우진 부장판사)도 1월 “원고가 제출한 증거들만으로는 이 사건 과세처분에 존재하는 하자가 명백하다고 인정하기에 부족하고 이를 인정할 증거가 없다”며 한국관광공사의 항소를 기각했다. 시건은 대법원으로 올라갔으나, 대법원 판단도 같았다. 대법원 제1부(주심 김소영 대법관)는 한국관광공사가 제주도를 상대로 낸 부당이득금 반환 청구소송 상고심에서 원고 패소 판결한 원심을 확정했다고 14일 밝혔다. 재판부는 “회원제골프장으로 등록했으나 실제로는 회원을 모집하지 않고 대중골프장으로 운영한 원고의 골프장 부지는 구 지방세법 등 관계 법령에 의하면 낮은 세율이 적용되는 별도합산과세대상임에도 피고가 분리과세대상으로 보고 더 높은 세율을 적용해 과세처분을 한 것에는 법규의 중요한 부분을 위반한 중대한 하자가 있다”고 말했다. 그러나 재판부는 “구 지방세법 규정의 문언상 이 골프장 부지가 분리과세대상 토지에 해당하지 않는다고 단정하기 어렵고, 유사한 사안에 대해 하급심 법원의 판결이나 행정자치부의 유권해석도 이 사건 과세처분과 마찬가지의 결론을 내리는 등 법령 해석에 다툼의 여지가 있는 점 등의 사정에 비추어 보면 원고가 제출한 증거들만으로 이 과세처분의 하자가 명백하다고 인정할 수 없어 과세처분이 무효라고 할 수 없다고 원심은 판단했다”고 밝혔다. 그러면서 “관련 법리와 기록에 비추어 살펴보면, 원심의 판단은 수긍할 수 있고, 거기에 상고이유 주장과 같이 명백성의 판단 기준에 관한 법리를 오해하거나 판단을 누락하는 등의 위법이 없다”고 판시했다. &lt;저작권자 © 로이슈, 무단 전재 및 재배포 금지&gt; 로이슈가 제공하는 콘텐츠에 대해 독자는 친근하게 접근할 권리와 정정ㆍ반론ㆍ추후 보도를 청구 할 권리가 있습니다. 메일:law@lawissue.co.kr / 전화번호:02-6925-0217 주요뉴스 윤 대통령, 북한 도발 심화... 한미일 안보협력 대응 강화 정치 국회, 국정감사 2주차 일정 개시... 법사위 등 10개 상임위 진행 정치 울산지법, 아동학대 증거 확보 친부의 녹음파일 및 녹취록 증거능력 인정…... 법조·사회 윤석열 대통령, '가스누출 추정' 일가족 참사 "취약층 대책 세우라" 지시 정치 이재명 대표. "한반도에 욱일기 걸릴 수 있다" 한미일 훈련 비판 정치 북한 전술핵 과시, 대통령실 "동북아 안보현실 엄중" 정치 핫포커스 〉 김정문알로에 자회사 케이제이엠바이오, 치료제 없는 난청 관련 건기식 원료... 현대약품, 전립선비대에 의한 배뇨장애 해결 ‘유린타민캡슐’ 선보여 CJ제일제당, ‘고메치킨’ 신제품 2종 선보여 KFC, 프리미엄 닭다리통살로 재탄생한 ‘블랙라벨더블다운맥스’ 선보여 세븐일레븐, 2021 추석선물세트 판매 시작 CU, 추석 선물로 기존 편의점에서 판매하지 않았던 상품들 대거 선보여 글씨 축소 글씨 확대 프린트 페이스북 트위터 구글플러스 투데이 이슈 〉 대법원, 단말기 지원보조금 부가가치세법 '에누리액 해당 안돼' 원심 확정 법조·사회 창원지법, 항소심서 업무상횡령 등 모두 유죄 원심파기 감형 법조·사회 [IT이슈] 증권플러스, 9월 상승률 1위 종목은 ‘WI(더블유아이)’ 外 산업 [에누리 주간IT-9월 5주] 가을철 미세먼지 영향으로 공기청정기 수요 증가 산업 울산지법, 허위 물품판매글 올려 1800만 원 상당 물품대금만 챙겨 실형 법조·사회 법무부, 불법체류외국인 관계부처 합동단속 법조·사회 LAW ISSUE 민주당, 국정감사 대책회의... “‘대감게이트’ 압박 진상규명 나설 것” 베스트클릭 〉 1  부산 기장군 기장읍 사거리 덤프트럭 6중 추돌사고…1명 중상, 4명 경상 2  윤석열 대통령, '가스누출 추정' 일가족 참사 "취약층 대책 세우라" 지시 3  부산 해운대구 한 재활용수집업체 화재 4  LX·국토부, 10곳 지자체에 화재 대응·하천 관리 등 행정 서비스 성과 5  부산해경, 다대동 쥐섬 후두부 출혈 응급환자 긴급 이송 주식시황 〉 항목 현재가 전일대비 코스피 2,182.02 ▼50.82 코스닥 670.20 ▼28.29 코스피200 283.49 ▼6.92 가상화폐 시세 〉 빗썸 업비트 코인원 암호화폐 현재가 기준대비 비트코인 27,379,000 ▲120,000 비트코인캐시 159,100 ▲1,300 비트코인골드 28,210 ▲200 이더리움 1,838,000 ▲12,000 이더리움클래식 34,520 ▲340 리플 710 ▲2 이오스 1,484 ▲16 퀀텀 3,899 ▲28 암호화폐 현재가 기준대비 비트코인 27,407,000 ▲145,000 암호화폐 현재가 기준대비 비트코인 27,397,000 ▲140,000 비트코인캐시 158,900 ▲1,200 비트코인골드 28,000 0 이더리움 1,840,000 ▲13,000 이더리움클래식 34,530 ▲360 리플 711 ▲4 퀀텀 3,891 0 이오타 368 0 오피니언 〉 [기고] "국민을 살리는 응급전화 119, 비응급 신고를 자제해 주세요" [기고]가을철 불청객 말벌쏘임, 예방책 및 응급처치법 [기고]환절기 심뇌혈관 질환 예방과 올바른 생활수칙 [기자수첩] 국감 앞둔 수자원공사, 많아도 너무 많은 논란 신문사소개 기사제보 광고문의 개인정보취급방침 청소년보호정책 이메일무단수집거부 저작권규약 제호:로이슈 | 정기간행물 등록번호:서울 아00830 | 창간연월일:2005년 11월 1일 대표이사:김영삼 | 발행인/편집인:김영삼 | 청소년보호책임자:편도욱 주소:서울 영등포구 국회대로 70길 22 금강빌딩 705호 전화:02-6925-0217 Copyright ⓒ 2013 로이슈. All rights reserved. e-mail : info@lawissue.co.kr</t>
+  </si>
+  <si>
+    <t>"제주관광 질적 향상을 위해" 유관기관 뭉쳤다! &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 "제주관광 질적 향상을 위해" 유관기관 뭉쳤다! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 "제주관광 질적 향상을 위해" 유관기관 뭉쳤다! 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.03.06 16:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도가 제주관광의 질적성장을 위해 관광공사, 관광협회 등 유관기관과 합동워크숍을 5일부터 7일까지 2박3일간 제주웰컴센터에서 개최하고 있다. 제주도는 2016년 제주관광의 새로운 목표인 질적성장을 위해 2016 해외제주관광홍보사무소 합동 워크숍을 5일부터 7일까지 2박3일간 제주웰컴센터 3층에서 개최하고 있다.이번 합동 워크숍에서는 2016년 제주관광의 새로운 비전과 목표인 질적성장의 성공적인 달성을 위해 2015년의 성과와 과제를 살펴보고 2016년 해외 현지 관광동향과 마케팅 계획을 공유하고, 유관기관 및 도내 업계의 의견수렴을 통한 협업과제와 마케팅 방안 등을 발굴할 계획이다.이를 바탕으로 제주도는 외국인관광객 유치를 위한 위협요인과 빠르게 변화해나가는 관광객 트렌드에 적절히 대응함과 동시에 올해 추진될 각각의 사업계획 반영을 통해 실질적인 성과를 창출할 수 있도록 최선을 다해 나갈 예정이다.워크숍 일정은 5일 관광공사, 관광협회, 컨벤션뷰로의 마케팅분야 2016년 사업추진 계획 공유를 시작으로 권역별 해외홍보사무소 현지 동향 및 2016년 주요 계획, 권역별 분임토의를 진행했다.특히 도내 여행사, 호텔 등 관광업계와의 토론을 통해 실제 현장의  살아있는 의견을 교환하는 등 소통을 확대했다.6일은 올해 개최되는 대형 이벤트, 축제를 연계한 관광객 유치 마케팅 방안, 스마트 관광 추진 등에 관한 추진계획을 공유함은 물론 성공적인 행사개최 등을 위한 권역별 현지 사무소의 의견수렴과 현지 마케팅방안 등 협조사항을 논의했다. ▲ 제주도가 제주관광의 질적성장을 위해 관광공사, 관광협회 등 유관기관과 합동워크숍을 5일부터 7일까지 2박3일간 제주웰컴센터에서 개최하고 있다. 또한 제주도내 신규 관광자원 시찰을 통해 각 시장별 특성에 맞는 제주상품 개발 및 홍보도 집중 토론됐다.마지막인 7일은 올해 제주관광의 화두인 질적성장을 위한 도정정책 공유와 함께 전날까지 이루어진 다양한 의견과 방안을 총정리하는 합동 워크숍을 끝으로 마무리 할 예정이다.제주도 관계자는 "이번 2016 해외제주홍보사무소장 합동 워크숍을 통해 공유된 사업추진방향의 성실한 이행을 통해 제주관광의 질적 성장은 물론, 이를 계기로 도내 관광분야 기관, 단체, 업계가 하나로 뭉쳐 국내외 정치‧경제적 위기에도 관광산업이 흔들리지 않고 앞으로 나아갈 수 있는 토대를 마련하겠다"고 밝혔다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 골프관광객 유치마케팅 본격 시동 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 골프관광객 유치마케팅 본격 시동 (제주=뉴스1) 이석형 기자					| 2016-03-01 12:53 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 박인비 프로가 9일 제주 오라CC에서 열린 제주 삼다수 마스터스 마지막 라운드에서 1번홀 출발 전 수건으로 땀을 닦고 있다. (KLPGA 제공) 2015.8.9/뉴스1 © News1 제주도는 골프관광객 유치를 위해 민·관 공동 유치단을 구성해 해외 마케팅에 본격적으로 나선다고 1일 밝혔다.도는 우선 골프장과 항공사가 협력체계를 구축한 후 일본 직항노선과 비수기 등을 활용해 가격 경쟁력을 갖춘 골프상품을 개발한다.특히 중국과 일본에서 열리는 국제박람회에 참가해 골프관광객 유치를 위해 적극적으로 홍보할 계획이다.또 가격경쟁력과 지리적 접근성이 좋은 중국시장을 대상으로 팸투어와 기업과 골프 동호회 등이 참가하는 아마추어 골프대회 유치 등을 추진한다.국내 시장은 공항 인접 도시 골프연습장과 스크린골프장을 중심으로 홍보마케팅 활동을 강화하는 한편 도내 개최 19개 골프대회에 대한 갤러리 및 대회 체험을 위한 홍보활동도 나설 계획이다. jejunews77@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 직무역량 강화 관광사업체 세무.회계과정 진행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 직무역량 강화 관광사업체 세무.회계과정 진행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 직무역량 강화 관광사업체 세무.회계과정 진행 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.17 17:01 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)와 제주특별자치도인재개발원(원장 김영주)은 관광사업체 세무.회계과정 3기 교육을 18일 제주웰컴센터에서 진행한다.이번 교육은 관광사업체의 효율적 경영관리와 직원 직무능력 향상을 돕기 위해 마련됐으며, 현업 중심의 종합소득세 및 부가가치세 실무교육이 이뤄진다.한편 관광협회는 기업 경쟁력 강화와 인적자원 투자의 일환으로 지역특산물 소비지출을 위한 '지역특산물 SNS 마케팅과정'1기 교육을 오는 29일 진행할 예정이다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 해외제주관광 홍보사무소 합동 워크숍 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 해외제주관광 홍보사무소 합동 워크숍 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 해외제주관광 홍보사무소 합동 워크숍 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.06 09:44 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 2016년 제주관광의 새로운 목표인 질적성장의 목표 달성을 위해 5일부터 7일까지 제주웰컴센터에서 '2016 해외제주관광홍보사무소 합동 워크숍'을 개최하고 있다.워크숍에서는 2016년 제주관광의 새로운 비전과 목표인 질적성장의 성공적인 달성을 위해 지난 2015년의 성과와 과제를 살펴보고 2016년 해외 현지 관광동향과 마케팅 계획을 공유하는 한편, 유관기관 및 도내 업계의 의견수렴을 통한 협업과제와 마케팅 방안 등에 대해 논의된다.제주자치도 관계자는 "이번 워크숍을 통해 공유된 사업추진방향의 성실한 이행을 통해 제주관광의 질적 성장은 물론, 이를 계기로 도내 관광분야 기관, 단체, 업계가 하나로 뭉쳐 국내외 정치.경제적 위기에도 관광산업이 흔들리지 않고 앞으로 나아갈 수 있는 토대를 마련하겠다"고 말했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 방문관광객 89%가 '개별관광객'...패키지 '8.7%' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 방문관광객 89%가 '개별관광객'...패키지 '8.7%' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 방문관광객 89%가 '개별관광객'...패키지 '8.7%' 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.08 13:36 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 평균체류일수 내국인 5.08일, 외국인 4.45일 제주도를 방문하는 관광객 중 개별관광객이 90%에 육박하는 것으로 나타났다.제주관광공사(사장 최갑열)는 8일 지난해 제주를 방문한 내.외국인 및 크루즈 관광객 6,918명을 대상으로 실시한 국가승인통계 '2015 제주특별자치도 방문관광객 실태조사' 결과를 발표했다. 이번 조사는 제주국제공항, 제주여객터미널, 제주외항 크루즈 전용부두 등 주요 관문지역에서 개별면접조사 방식으로 관광객 성향, 제주관광실태, 제주여행평가 및 만족도 등을 관광객 유형에 따라 이뤄졌다. 조사 결과 내국인 방문관광객의 평균 체류일수는 5.08일이며, 1인 지출 경비는 57만2285원으로 나타났다. 여행형태는 개별여행이 89.0%로 가장 높았다.반면 패키지여행은 8.7%로 크게 떨어졌고, 에어-텔여행(air-tel tour) 2.3%로 나타났다. 제주 여행에 대한 전반적 만족도는 3.99점(5점 만점 기준)으로 나타났다. 외국인 방문관광객의 평균 체류일수는 4.45일이며 1인 지출 경비는 미화기준 1520.3달러로 나타났다.외국인들의 여행형태는 개별여행 46.7%, 패키지여행 50.2%, 에어-텔여행(air-tel tour) 3.1%로 나타났다. 제주 여행에 대한 전반적 만족도는 4.10점(5점 만점 기준)으로 나타났다. 방문관광객 실태조사는 2014년에 국가승인통계로 지정되어 제주관광에 대한 기초현황 자료로서 관광정책 및 제주관광 발전의 기초자료로 많이 활용되고 있다.제주관광공사 관계자는 "기존 관광객을 대상으로 설문조사를 진행하는 것에 덧붙여, 관광객을 대상으로 한 인터뷰, 실제적으로 관광행동을 관찰하는 가장 조사방법 등을 활용한 정성적인 조사방법을 이용하여 더욱 더 심층 있는 조사를 전개할 계획"이라고 밝혔다. &lt;헤드라인제주&gt;&lt;윤철수 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 강정 민군복합항 크루즈관광 유치 팸투어 진행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 강정 민군복합항 크루즈관광 유치 팸투어 진행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 강정 민군복합항 크루즈관광 유치 팸투어 진행 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.03.02 13:46 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 강정항 조감도 ⓒ헤드라인제주 제주특별자치도는 내년 7월 서귀포시 강정 민군복합형 관광미항(제주해군기지) 준공을 앞두고, 중국 화동지역 크루즈간광객 유치를 위해 3일부터 6일까지 모객 여행사 관계자 초청 팸투어를 진행한다고 2일 밝혔다.팸투어에는 상해화하여행사, 강소성의 남경시중국여행사, 절강성의 녕파해외여행사 등 9개 여행사의 대표 등 12명이 참가한다.제주자치도는 이번 팸투어를 통해 민군복합항이 내년 7월 개항하게 됨에 따라 중국 크루즈관광객 제주 유치확대를 요청하고 기항지관광 프로그램 운영 시 유료관광지 이용 확대와 지역상권 방문 등이 이뤄질 수 있도록 요청할 방침이라고 전했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 골프관광객 유치마케팅 본격 시동 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 골프관광객 유치마케팅 본격 시동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 골프관광객 유치마케팅 본격 시동 기자명 고병수 기자 입력 2016.03.01 16:06 수정 2016.03.01 16:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 민·관 공동마케팅 구성...블루오션 시장 집중 공략 (제주=국제뉴스) 고병수기자 = 제주특별자치도는 고부가가치 스포츠관광객의 81%이상을 차지하며 제주스포츠산업을 견인하는 골프관광객 유치마케팅에 본격 시동을 걸었다고 1일 밝혔다.도는 올해 골프관광객 유치마케팅 추진방향을 질 높고 차별화된 골프상품을 개발하고 중국, 일본시장 등 블루오션 시장을 타켓으로 민관공동 유치단을 구성해 공격적인 유치마케팅 활동을 전개한다는 방침이라는 것.이에 질 높고 차별화된 골프상품을 골프장과 항공사, MICE, 관광업계 등과 연계해 다양하게 선보일 예정이다.올해 블루오션 골프시장은 신규 골프관광 수요 창출이 가능한 중국과 한일관계 개선으로 다시 떠오르는 일본, 국내 공항 인접도시 등을 꼽고 있다.중국 시장은 가격경쟁력과 지리적 접근성이 좋은데다 골프동호회 중심으로 골프인구의 지속적인 증가가 예상되고 있다. 일본시장은 우리나라 주변국 중 골프인구가 가장 많고 한일 관계 개선 및 제주-일본 직항노선 회복 등의 호재로 작용하여 새로운 골프관광 수요 창출이 기대하고 있다.국내시장인 경우 골프장 급증세에 따라 지자체 간 골프관광객 유치경쟁이 치열한 가운데 제주와 항공 접근성이 쉬운 김포, 김해, 청주 등 공항 인접도시를 타깃으로 삼았다.민·관 공동 골프관광객 유치단은 블루오션 시장을 타킷으로 공격적인 마케팅 활동을 전개할 계획이다.관계자는 "체계적인 골프관광객 유치방안을 마련하기 위해 골프관광객 유치 T/F팀은 새롭게 구성해 분기 1회 이상 운영할 예정"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -428,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -460,9 +487,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -471,6 +495,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -488,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -499,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -510,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -520,9 +547,6 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -531,19 +555,120 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
